--- a/medicine/Mort/Incitation_au_suicide/Incitation_au_suicide.xlsx
+++ b/medicine/Mort/Incitation_au_suicide/Incitation_au_suicide.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'incitation ou provocation au suicide réfère aux comportements qui peuvent conduire, directement ou indirectement, au suicide d'une tierce personne et qui sont punis par la loi dans certains pays[1],[2],[3],[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'incitation ou provocation au suicide réfère aux comportements qui peuvent conduire, directement ou indirectement, au suicide d'une tierce personne et qui sont punis par la loi dans certains pays.
 </t>
         </is>
       </c>
@@ -513,8 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Droit canadien
-Le Code criminel contient une infraction le fait de conseiller le suicide ou d'y aider à l'art. 241 (1) C.cr.[5] : 
+          <t>Droit canadien</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Code criminel contient une infraction le fait de conseiller le suicide ou d'y aider à l'art. 241 (1) C.cr. : 
 « 241 (1) Est coupable d’un acte criminel et passible d’un emprisonnement maximal de quatorze ans quiconque, que le suicide s’ensuive ou non, selon le cas :
 a) conseille à une personne de se donner la mort ou l’encourage à se donner la mort;
 b) aide quelqu’un à se donner la mort. »
